--- a/input/(Новые) 2.11.xlsx
+++ b/input/(Новые) 2.11.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="465" windowWidth="14925" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="8535" yWindow="465" windowWidth="14925" windowHeight="12105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ПОЕЗД" sheetId="60" r:id="rId1"/>
     <sheet name="ЛОК" sheetId="59" r:id="rId2"/>
     <sheet name="ЛБР" sheetId="58" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ЛОК!$A$1:$R$355</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -4064,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N392"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12251,9 +12254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R355"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21257,6 +21260,7 @@
       <c r="R355" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R355"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21266,9 +21270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W357"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23:Q33"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
